--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_505.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_505.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32678-d78136-Reviews-Westdrift_Manhattan_Beach_Autograph_Collection-Manhattan_Beach_California.html</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>7</t>
   </si>
   <si>
     <t>?</t>
@@ -532,11 +538,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +570,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_505.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_505.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="181">
   <si>
     <t>STR#</t>
   </si>
@@ -145,6 +145,436 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/07/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32678-d78136-r592627566-Westdrift_Manhattan_Beach_Autograph_Collection-Manhattan_Beach_California.html</t>
+  </si>
+  <si>
+    <t>32678</t>
+  </si>
+  <si>
+    <t>78136</t>
+  </si>
+  <si>
+    <t>592627566</t>
+  </si>
+  <si>
+    <t>07/02/2018</t>
+  </si>
+  <si>
+    <t>Nice hotel in Manhattan Beach, with a few things to look out for</t>
+  </si>
+  <si>
+    <t>We come down to the LA area often and stay all over, from downtown, Beverly Hills, West Hollywood, Santa Monica, LAX, or down in El Segundo. This trip, we decided to stay in Manhattan Beach since this hotel was just reopened as an Autograph Collection hotel, and it was reasonably priced.
+Upon check in, the front desk was not very friendly, but we got checked in very quickly. For the second time on this trip, I had to inquire if I needed a breakfast cert, and was very coldly told that "our name would be on a list if we got something". Ok. Sure. Had a nice room on the top floor with a view of the city? Not as nice as the golf course views, but I don't spend much time looking out the window anyways.
+The room was great. It was relatively spacious and appointed with modern furniture and colors. Rather than having a desk, it had a single round table against a sofa-like bench. The bed was comfortable and the bathroom was small, but clean. 
+The property is really nice. Situated next to a golf course, it's pool and convention areas all look out to the course. There is only one restaurant that feels like it's part of the lobby, along with a bar, and seating areas with a foosball and shuffleboard table. 
+Breakfast consisted of a continental buffet, which was not bad, but wasn't worth the...We come down to the LA area often and stay all over, from downtown, Beverly Hills, West Hollywood, Santa Monica, LAX, or down in El Segundo. This trip, we decided to stay in Manhattan Beach since this hotel was just reopened as an Autograph Collection hotel, and it was reasonably priced.Upon check in, the front desk was not very friendly, but we got checked in very quickly. For the second time on this trip, I had to inquire if I needed a breakfast cert, and was very coldly told that "our name would be on a list if we got something". Ok. Sure. Had a nice room on the top floor with a view of the city? Not as nice as the golf course views, but I don't spend much time looking out the window anyways.The room was great. It was relatively spacious and appointed with modern furniture and colors. Rather than having a desk, it had a single round table against a sofa-like bench. The bed was comfortable and the bathroom was small, but clean. The property is really nice. Situated next to a golf course, it's pool and convention areas all look out to the course. There is only one restaurant that feels like it's part of the lobby, along with a bar, and seating areas with a foosball and shuffleboard table. Breakfast consisted of a continental buffet, which was not bad, but wasn't worth the price that they were charging for it. The pool is heated and has a good number of chairs and "cabanas" next to it for the size. Overall, I liked this hotel, but there are a few things to note about our stay. The walls are VERY thing. We heard an argument in the connecting room, and people in the hallways talking all night. Speaking of which - most of the people at night in the hallways seemed to be drunk. Going to the lobby at night always had a lot of younger people, and it was always loud and sounded like people were having a good time. Also, there are a lot of dogs. Perhaps it was just this trip we went down, but there dogs of all sizes seen throughout the hotel, and heard barking during the night, morning, and whenever any of the drunk people talking loudly in the hall walked by. On the plus side, I wasn't kept up all night by the vibrations of a service elevator as I had been at the JW Marriott in Santa Monica so I slept better once I fell asleep.All in all, I would stay here again. Perhaps there was just a particularly obnoxious group staying in the hotel when we were there, but I enjoyed the property, my son like the pool and my wife liked the breakfast. Win, win win.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>TeamMarriott, General Manager at westdrift Manhattan Beach, Autograph Collection, responded to this reviewResponded 4 days ago</t>
+  </si>
+  <si>
+    <t>Responded 4 days ago</t>
+  </si>
+  <si>
+    <t>We come down to the LA area often and stay all over, from downtown, Beverly Hills, West Hollywood, Santa Monica, LAX, or down in El Segundo. This trip, we decided to stay in Manhattan Beach since this hotel was just reopened as an Autograph Collection hotel, and it was reasonably priced.
+Upon check in, the front desk was not very friendly, but we got checked in very quickly. For the second time on this trip, I had to inquire if I needed a breakfast cert, and was very coldly told that "our name would be on a list if we got something". Ok. Sure. Had a nice room on the top floor with a view of the city? Not as nice as the golf course views, but I don't spend much time looking out the window anyways.
+The room was great. It was relatively spacious and appointed with modern furniture and colors. Rather than having a desk, it had a single round table against a sofa-like bench. The bed was comfortable and the bathroom was small, but clean. 
+The property is really nice. Situated next to a golf course, it's pool and convention areas all look out to the course. There is only one restaurant that feels like it's part of the lobby, along with a bar, and seating areas with a foosball and shuffleboard table. 
+Breakfast consisted of a continental buffet, which was not bad, but wasn't worth the...We come down to the LA area often and stay all over, from downtown, Beverly Hills, West Hollywood, Santa Monica, LAX, or down in El Segundo. This trip, we decided to stay in Manhattan Beach since this hotel was just reopened as an Autograph Collection hotel, and it was reasonably priced.Upon check in, the front desk was not very friendly, but we got checked in very quickly. For the second time on this trip, I had to inquire if I needed a breakfast cert, and was very coldly told that "our name would be on a list if we got something". Ok. Sure. Had a nice room on the top floor with a view of the city? Not as nice as the golf course views, but I don't spend much time looking out the window anyways.The room was great. It was relatively spacious and appointed with modern furniture and colors. Rather than having a desk, it had a single round table against a sofa-like bench. The bed was comfortable and the bathroom was small, but clean. The property is really nice. Situated next to a golf course, it's pool and convention areas all look out to the course. There is only one restaurant that feels like it's part of the lobby, along with a bar, and seating areas with a foosball and shuffleboard table. Breakfast consisted of a continental buffet, which was not bad, but wasn't worth the price that they were charging for it. The pool is heated and has a good number of chairs and "cabanas" next to it for the size. Overall, I liked this hotel, but there are a few things to note about our stay. The walls are VERY thing. We heard an argument in the connecting room, and people in the hallways talking all night. Speaking of which - most of the people at night in the hallways seemed to be drunk. Going to the lobby at night always had a lot of younger people, and it was always loud and sounded like people were having a good time. Also, there are a lot of dogs. Perhaps it was just this trip we went down, but there dogs of all sizes seen throughout the hotel, and heard barking during the night, morning, and whenever any of the drunk people talking loudly in the hall walked by. On the plus side, I wasn't kept up all night by the vibrations of a service elevator as I had been at the JW Marriott in Santa Monica so I slept better once I fell asleep.All in all, I would stay here again. Perhaps there was just a particularly obnoxious group staying in the hotel when we were there, but I enjoyed the property, my son like the pool and my wife liked the breakfast. Win, win win.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32678-d78136-r592025757-Westdrift_Manhattan_Beach_Autograph_Collection-Manhattan_Beach_California.html</t>
+  </si>
+  <si>
+    <t>592025757</t>
+  </si>
+  <si>
+    <t>06/30/2018</t>
+  </si>
+  <si>
+    <t>Reburbished to a high standard</t>
+  </si>
+  <si>
+    <t>We like the Marriott Autograph Collection Hotels and this superbly refurbished property did not disappoint. The large Lobby is a feature with a resort-style decor and is a lovely space to relax and have coffee or drinks.   We upgraded our room to include a view over the golf course but on the level we were on (3) the view was somewhat obscured by the roof of the floor below. As we spent little time in the room that was not really an issue and we really enjoyed our stay. The hotel is close to good shopping centres like Manhattan Beach Mall (currently also being refurbished, but it remains open) and stylish The Point. The staff were accommodating and friendly and service was good.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>TeamMarriott, General Manager at westdrift Manhattan Beach, Autograph Collection, responded to this reviewResponded 6 days ago</t>
+  </si>
+  <si>
+    <t>Responded 6 days ago</t>
+  </si>
+  <si>
+    <t>We like the Marriott Autograph Collection Hotels and this superbly refurbished property did not disappoint. The large Lobby is a feature with a resort-style decor and is a lovely space to relax and have coffee or drinks.   We upgraded our room to include a view over the golf course but on the level we were on (3) the view was somewhat obscured by the roof of the floor below. As we spent little time in the room that was not really an issue and we really enjoyed our stay. The hotel is close to good shopping centres like Manhattan Beach Mall (currently also being refurbished, but it remains open) and stylish The Point. The staff were accommodating and friendly and service was good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32678-d78136-r591928989-Westdrift_Manhattan_Beach_Autograph_Collection-Manhattan_Beach_California.html</t>
+  </si>
+  <si>
+    <t>591928989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New modern hotel with impeccable service </t>
+  </si>
+  <si>
+    <t>My wife and I are road warriors, and with almost 900 nights with Marriott we have seen our share of rooms and hotels. While we don’t leave reviews often, this stay definitely earned one. What stood out about our experience here?Honestly it was the service. The morning of our stay I called the property to let them know it was our anniversary, and Michelle treated me like royalty. She and her team even went so far as to do a walk through of the room, and texted me the video, just to be sure I would be happy with the room we selected. When we arrived in our beautiful suite, we were greeted with a thoughtful hand written note from her along with a plate of chocolate strawberries. I’ve stayed at a lot of hotels over the years, and while yes this is a great property, what I found to be invaluable was the service. Thanks for a great stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>TeamMarriott, General Manager at westdrift Manhattan Beach, Autograph Collection, responded to this reviewResponded 5 days ago</t>
+  </si>
+  <si>
+    <t>Responded 5 days ago</t>
+  </si>
+  <si>
+    <t>My wife and I are road warriors, and with almost 900 nights with Marriott we have seen our share of rooms and hotels. While we don’t leave reviews often, this stay definitely earned one. What stood out about our experience here?Honestly it was the service. The morning of our stay I called the property to let them know it was our anniversary, and Michelle treated me like royalty. She and her team even went so far as to do a walk through of the room, and texted me the video, just to be sure I would be happy with the room we selected. When we arrived in our beautiful suite, we were greeted with a thoughtful hand written note from her along with a plate of chocolate strawberries. I’ve stayed at a lot of hotels over the years, and while yes this is a great property, what I found to be invaluable was the service. Thanks for a great stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32678-d78136-r590551203-Westdrift_Manhattan_Beach_Autograph_Collection-Manhattan_Beach_California.html</t>
+  </si>
+  <si>
+    <t>590551203</t>
+  </si>
+  <si>
+    <t>06/25/2018</t>
+  </si>
+  <si>
+    <t>Great Place</t>
+  </si>
+  <si>
+    <t>We have stayed here twice. Great hotel, just missing hot tub and sauna :-(Good location. 5 minutes Uber ride to beach. Great renovation, clean and quiet.   Pool was freezing and not enough pool towels. Gym was nice. MoreShow less</t>
+  </si>
+  <si>
+    <t>TeamMarriott, General Manager at westdrift Manhattan Beach, Autograph Collection, responded to this reviewResponded 1 week ago</t>
+  </si>
+  <si>
+    <t>Responded 1 week ago</t>
+  </si>
+  <si>
+    <t>We have stayed here twice. Great hotel, just missing hot tub and sauna :-(Good location. 5 minutes Uber ride to beach. Great renovation, clean and quiet.   Pool was freezing and not enough pool towels. Gym was nice. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32678-d78136-r589827412-Westdrift_Manhattan_Beach_Autograph_Collection-Manhattan_Beach_California.html</t>
+  </si>
+  <si>
+    <t>589827412</t>
+  </si>
+  <si>
+    <t>06/22/2018</t>
+  </si>
+  <si>
+    <t>Modern</t>
+  </si>
+  <si>
+    <t>Stayed one night on a business trip. The Westdrift is well located, close to the beach, but backs onto a golf course so you don’t feel like you are in central LA. The old Marriott has been renovated beautifully and totally modernized. The reception area is a great example of this with a very open feel that incorporates meeting spaces and the bar. The rooms are very business like, clean, new and with modern facilities. The pool area needs some work but feel I’ve found my new go to hotel for business in LA. MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>TeamMarriott, General Manager at westdrift Manhattan Beach, Autograph Collection, responded to this reviewResponded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Stayed one night on a business trip. The Westdrift is well located, close to the beach, but backs onto a golf course so you don’t feel like you are in central LA. The old Marriott has been renovated beautifully and totally modernized. The reception area is a great example of this with a very open feel that incorporates meeting spaces and the bar. The rooms are very business like, clean, new and with modern facilities. The pool area needs some work but feel I’ve found my new go to hotel for business in LA. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32678-d78136-r589827250-Westdrift_Manhattan_Beach_Autograph_Collection-Manhattan_Beach_California.html</t>
+  </si>
+  <si>
+    <t>589827250</t>
+  </si>
+  <si>
+    <t>I travel on Business and they don't have a desk in the rooms</t>
+  </si>
+  <si>
+    <t>I have stayed at the Marriott a few times in the past and thought this would be a great place with the updates but its gone from catering to business traveler to something else.  The updates are nice but you can still see the old big Marriott.  Don't pass it up but don't expect to be catered to if you are a business traveler, no desk really??MoreShow less</t>
+  </si>
+  <si>
+    <t>TeamMarriott, Manager at westdrift Manhattan Beach, Autograph Collection, responded to this reviewResponded 1 week ago</t>
+  </si>
+  <si>
+    <t>I have stayed at the Marriott a few times in the past and thought this would be a great place with the updates but its gone from catering to business traveler to something else.  The updates are nice but you can still see the old big Marriott.  Don't pass it up but don't expect to be catered to if you are a business traveler, no desk really??More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32678-d78136-r585729882-Westdrift_Manhattan_Beach_Autograph_Collection-Manhattan_Beach_California.html</t>
+  </si>
+  <si>
+    <t>585729882</t>
+  </si>
+  <si>
+    <t>06/07/2018</t>
+  </si>
+  <si>
+    <t>Beautiful Space and Helpful Staff</t>
+  </si>
+  <si>
+    <t>I found the first floor open space with bar, breakfast, and a mix of comfortable seating as well as working spaces just beautiful.  Room and amenities were great.  In particular, the staff was great when I realized i left an item behind.  I emailed the problem to staff early that morning, and before 8am there was a plan to have my item shipped to me immediately.  I had a minor facility issue in my room, and they were also quick to assess and fix the issue. I was to work in the room while the maintenance staff quickly and quietly got things right.\Very happy with my stay, and look forward to returning soon.MoreShow less</t>
+  </si>
+  <si>
+    <t>TeamMarriott, General Manager at westdrift Manhattan Beach, Autograph Collection, responded to this reviewResponded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>I found the first floor open space with bar, breakfast, and a mix of comfortable seating as well as working spaces just beautiful.  Room and amenities were great.  In particular, the staff was great when I realized i left an item behind.  I emailed the problem to staff early that morning, and before 8am there was a plan to have my item shipped to me immediately.  I had a minor facility issue in my room, and they were also quick to assess and fix the issue. I was to work in the room while the maintenance staff quickly and quietly got things right.\Very happy with my stay, and look forward to returning soon.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32678-d78136-r585598767-Westdrift_Manhattan_Beach_Autograph_Collection-Manhattan_Beach_California.html</t>
+  </si>
+  <si>
+    <t>585598767</t>
+  </si>
+  <si>
+    <t>06/06/2018</t>
+  </si>
+  <si>
+    <t>Solid, modern, nice rooms</t>
+  </si>
+  <si>
+    <t>Very nice rooms, modern hotel, close to the beach (10 min drive) and highway. Hotel views to a golf course. Parking is an attached structured, 32 usd a day, seems to be a little pricy. One drawback, rooms were not cleaned, you had to request it, this should not happen.MoreShow less</t>
+  </si>
+  <si>
+    <t>Very nice rooms, modern hotel, close to the beach (10 min drive) and highway. Hotel views to a golf course. Parking is an attached structured, 32 usd a day, seems to be a little pricy. One drawback, rooms were not cleaned, you had to request it, this should not happen.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32678-d78136-r585363767-Westdrift_Manhattan_Beach_Autograph_Collection-Manhattan_Beach_California.html</t>
+  </si>
+  <si>
+    <t>585363767</t>
+  </si>
+  <si>
+    <t>06/05/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beautiful Property | Newly Remodeled </t>
+  </si>
+  <si>
+    <t>I had great stay at the hotel which is recently remodeled with beautiful interiors, which looks good. One side of the hotel has city view &amp; the other side has Golf course view. One should take rooms on top floors to get good views around the hotel. The best part is that it is walkable to a lot of places to eat &amp; for shopping in Macys. Also, it’s not very far from the Manhattan beach which again turns to be advantageous for the hotel. Rooms were comfortable and clean, great amenities, loved staying here. Would definitely like to visit again. MoreShow less</t>
+  </si>
+  <si>
+    <t>I had great stay at the hotel which is recently remodeled with beautiful interiors, which looks good. One side of the hotel has city view &amp; the other side has Golf course view. One should take rooms on top floors to get good views around the hotel. The best part is that it is walkable to a lot of places to eat &amp; for shopping in Macys. Also, it’s not very far from the Manhattan beach which again turns to be advantageous for the hotel. Rooms were comfortable and clean, great amenities, loved staying here. Would definitely like to visit again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32678-d78136-r583764518-Westdrift_Manhattan_Beach_Autograph_Collection-Manhattan_Beach_California.html</t>
+  </si>
+  <si>
+    <t>583764518</t>
+  </si>
+  <si>
+    <t>05/29/2018</t>
+  </si>
+  <si>
+    <t>Excellent staycation spot!</t>
+  </si>
+  <si>
+    <t>We were looking for a getaway spot for Memorial Day weekend and found it!  They had finished a remodel 2 months before and it was outstanding.  The lobby was very nicely down with a complete bar, plenty of seating including a patio area looking over the golf course.  The room was terrific, great king-sized platform bed, a refrigerator and a Keurig coffee maker.  The bathroom was very nice with glassed in shower.  Had a nice bench couch with a small table.  I cannot say enough about the staff, from the valet, bellman, front desk and restaurant were just fabulous!  We played a round of golf and the course was in very good shape.  Linda at the course pro shop was very nice, getting us set up and off the tee quickly. I recommend booking a tee time. The hotel was minutes from the beach, we went down Sunday evening to catch a beautiful sunset.  It was an awesome weekend for us, staying at the Westdrift Manhattan Beach made it great!MoreShow less</t>
+  </si>
+  <si>
+    <t>TeamMarriott, General Manager at westdrift Manhattan Beach, Autograph Collection, responded to this reviewResponded May 30, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 30, 2018</t>
+  </si>
+  <si>
+    <t>We were looking for a getaway spot for Memorial Day weekend and found it!  They had finished a remodel 2 months before and it was outstanding.  The lobby was very nicely down with a complete bar, plenty of seating including a patio area looking over the golf course.  The room was terrific, great king-sized platform bed, a refrigerator and a Keurig coffee maker.  The bathroom was very nice with glassed in shower.  Had a nice bench couch with a small table.  I cannot say enough about the staff, from the valet, bellman, front desk and restaurant were just fabulous!  We played a round of golf and the course was in very good shape.  Linda at the course pro shop was very nice, getting us set up and off the tee quickly. I recommend booking a tee time. The hotel was minutes from the beach, we went down Sunday evening to catch a beautiful sunset.  It was an awesome weekend for us, staying at the Westdrift Manhattan Beach made it great!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32678-d78136-r581131676-Westdrift_Manhattan_Beach_Autograph_Collection-Manhattan_Beach_California.html</t>
+  </si>
+  <si>
+    <t>581131676</t>
+  </si>
+  <si>
+    <t>05/18/2018</t>
+  </si>
+  <si>
+    <t>Nice Hotel in Office Park walkable to Shopping and Restaurants but not the Beach</t>
+  </si>
+  <si>
+    <t>The building doesn't look like a hotel from the exterior - it looks like a generic office building.  Inside the lobby and rooms are quite nice.  No desk in the room.  Valet parking is just a few $ more than self-park.  Good service.MoreShow less</t>
+  </si>
+  <si>
+    <t>TeamMarriott, General Manager at westdrift Manhattan Beach, Autograph Collection, responded to this reviewResponded May 19, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 19, 2018</t>
+  </si>
+  <si>
+    <t>The building doesn't look like a hotel from the exterior - it looks like a generic office building.  Inside the lobby and rooms are quite nice.  No desk in the room.  Valet parking is just a few $ more than self-park.  Good service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32678-d78136-r580293504-Westdrift_Manhattan_Beach_Autograph_Collection-Manhattan_Beach_California.html</t>
+  </si>
+  <si>
+    <t>580293504</t>
+  </si>
+  <si>
+    <t>05/14/2018</t>
+  </si>
+  <si>
+    <t>Beautiful property, Excellent Service</t>
+  </si>
+  <si>
+    <t>We stayed at Westdrift Manhattan Beach last weekend and absolutely loved it. The property is beautiful and we loved the way they payed attention to every detail. We loved our room with balcony, it was nice and clean. The brunch on Sunday morning was to die for :-)MoreShow less</t>
+  </si>
+  <si>
+    <t>TeamMarriott, General Manager at westdrift Manhattan Beach, Autograph Collection, responded to this reviewResponded May 15, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 15, 2018</t>
+  </si>
+  <si>
+    <t>We stayed at Westdrift Manhattan Beach last weekend and absolutely loved it. The property is beautiful and we loved the way they payed attention to every detail. We loved our room with balcony, it was nice and clean. The brunch on Sunday morning was to die for :-)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32678-d78136-r576829207-Westdrift_Manhattan_Beach_Autograph_Collection-Manhattan_Beach_California.html</t>
+  </si>
+  <si>
+    <t>576829207</t>
+  </si>
+  <si>
+    <t>04/30/2018</t>
+  </si>
+  <si>
+    <t>Beautiful property</t>
+  </si>
+  <si>
+    <t>This is an unexpecting beautiful property. Located aside of a golf course, above overlooking the greens, it’s a very modern hotel with beautiful furniture and wonderful landscaping. I was there for a business conference and I want to point out that the food served to a large number of people in the conference room was excellent. I think it’s very difficult to serve excellent food to a mass number of people. And they did it well. Very well. Extremely well. I will be back to this hotel for more.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>TeamMarriott, General Manager at westdrift Manhattan Beach, Autograph Collection, responded to this reviewResponded May 9, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 9, 2018</t>
+  </si>
+  <si>
+    <t>This is an unexpecting beautiful property. Located aside of a golf course, above overlooking the greens, it’s a very modern hotel with beautiful furniture and wonderful landscaping. I was there for a business conference and I want to point out that the food served to a large number of people in the conference room was excellent. I think it’s very difficult to serve excellent food to a mass number of people. And they did it well. Very well. Extremely well. I will be back to this hotel for more.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32678-d78136-r576622307-Westdrift_Manhattan_Beach_Autograph_Collection-Manhattan_Beach_California.html</t>
+  </si>
+  <si>
+    <t>576622307</t>
+  </si>
+  <si>
+    <t>04/29/2018</t>
+  </si>
+  <si>
+    <t>Lovely</t>
+  </si>
+  <si>
+    <t>Se reserved online for 5 people (2 adults, 1 teenager, 2 kids). Our option was a king bed or 2 queens and a rollaway bed, we asked for 2 queens and The rollaway bed. But, once we got there they said that a rollaway bed was not an option so we crammed up in the two beds, that is why I gave it 4 stars. We were not able to rest well, but the bed is really nice. View of the golf course is nice. The decoration is fresh, clean and peaceful. We had room service and it was really good. Especially the Thai chicken and the grilled avocado/tomato burrata salad.MoreShow less</t>
+  </si>
+  <si>
+    <t>TeamMarriott, General Manager at westdrift Manhattan Beach, Autograph Collection, responded to this reviewResponded May 10, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 10, 2018</t>
+  </si>
+  <si>
+    <t>Se reserved online for 5 people (2 adults, 1 teenager, 2 kids). Our option was a king bed or 2 queens and a rollaway bed, we asked for 2 queens and The rollaway bed. But, once we got there they said that a rollaway bed was not an option so we crammed up in the two beds, that is why I gave it 4 stars. We were not able to rest well, but the bed is really nice. View of the golf course is nice. The decoration is fresh, clean and peaceful. We had room service and it was really good. Especially the Thai chicken and the grilled avocado/tomato burrata salad.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32678-d78136-r576604219-Westdrift_Manhattan_Beach_Autograph_Collection-Manhattan_Beach_California.html</t>
+  </si>
+  <si>
+    <t>576604219</t>
+  </si>
+  <si>
+    <t>Construction is complete!</t>
+  </si>
+  <si>
+    <t>I have stayed frequently at this hotel, through all the construction and renovation.  So this time, it was pleasant not to have a tent in the parking lot and workers banging hammers.  The location is marvelous and beautiful and the hotel is roomy.  Everything is clean and new and boring.  Sand color only goes so far without some splashes of color.  I missed the concierge lounge and the breakfast buffet was just not up to par (the word stingy comes to mind).  Housekeeping forgot to clean my room one day but I would put that down to getting everything organized.  The ball room was very nice for our big meeting and the catered meal was excellent.MoreShow less</t>
+  </si>
+  <si>
+    <t>TeamMarriott, General Manager at westdrift Manhattan Beach, Autograph Collection, responded to this reviewResponded May 11, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 11, 2018</t>
+  </si>
+  <si>
+    <t>I have stayed frequently at this hotel, through all the construction and renovation.  So this time, it was pleasant not to have a tent in the parking lot and workers banging hammers.  The location is marvelous and beautiful and the hotel is roomy.  Everything is clean and new and boring.  Sand color only goes so far without some splashes of color.  I missed the concierge lounge and the breakfast buffet was just not up to par (the word stingy comes to mind).  Housekeeping forgot to clean my room one day but I would put that down to getting everything organized.  The ball room was very nice for our big meeting and the catered meal was excellent.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32678-d78136-r576134918-Westdrift_Manhattan_Beach_Autograph_Collection-Manhattan_Beach_California.html</t>
+  </si>
+  <si>
+    <t>576134918</t>
+  </si>
+  <si>
+    <t>04/27/2018</t>
+  </si>
+  <si>
+    <t>A Needed Renovation &amp; a Reduction of Amenities</t>
+  </si>
+  <si>
+    <t>The hotel recently underwent a much-needed renovation.  This is a plus, as it was badly needed.  On the other hand, the amenities, especially for Marriott members, have been dramatically reduced.  Very disappointing.
+The renovation is beach-kitsch and I'm not certain it's going to bear up well, either physically, or thematically.  Some of the materials feel cheap and the beach vacation theme seems about three miles out of place.  That being said, it is clean and new.
+The concierge lounge is gone and so there is no evening happy hour.  Nor is there anywhere for Marriott members to drop in to pick up a soda, water, or one of the big, fat cookies that used to be so enjoyable.  The breakfast buffet is much reduced, with a meager offering of thinly-sliced cold cuts, fresh fruit and various breads.  The buffet no longer offers bacon, sausage, eggs, potatoes, oatmeal or other hearty fare.
+There are no longer desks in the rooms.  As a businessman who often works in the evenings, I find this to be very inconvenient. 
+Dining is done out in the open at the back of the lobby.  It feels like being on display and is not very comfortable.  The bar is new with an impressive but strange arrangement of televisions.  These televisions are held by metal frames that are mounted right into the surface of the bar, making for an awkward seating arrangement.  The bottoms of these televisions are...The hotel recently underwent a much-needed renovation.  This is a plus, as it was badly needed.  On the other hand, the amenities, especially for Marriott members, have been dramatically reduced.  Very disappointing.The renovation is beach-kitsch and I'm not certain it's going to bear up well, either physically, or thematically.  Some of the materials feel cheap and the beach vacation theme seems about three miles out of place.  That being said, it is clean and new.The concierge lounge is gone and so there is no evening happy hour.  Nor is there anywhere for Marriott members to drop in to pick up a soda, water, or one of the big, fat cookies that used to be so enjoyable.  The breakfast buffet is much reduced, with a meager offering of thinly-sliced cold cuts, fresh fruit and various breads.  The buffet no longer offers bacon, sausage, eggs, potatoes, oatmeal or other hearty fare.There are no longer desks in the rooms.  As a businessman who often works in the evenings, I find this to be very inconvenient. Dining is done out in the open at the back of the lobby.  It feels like being on display and is not very comfortable.  The bar is new with an impressive but strange arrangement of televisions.  These televisions are held by metal frames that are mounted right into the surface of the bar, making for an awkward seating arrangement.  The bottoms of these televisions are just barely above the heads of the patrons sitting at the bar.A mistake was made on my bill and getting a copy of the corrected statement has proved to be very difficult.  After working with the staff for four consecutive days, I was told that it would take seven-to-ten business days for accounting to generate a new statement.I also believe that $32 to self-park in the garage is a bit pricey.Truly, from a very longtime (several hundred nights) customer's perspective, what has really happened is that Marriott gave the property a much-need facelift, reduced the amenities, and slapped a new name on it.MoreShow less</t>
+  </si>
+  <si>
+    <t>TeamMarriott, Manager at westdrift Manhattan Beach, Autograph Collection, responded to this reviewResponded April 28, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 28, 2018</t>
+  </si>
+  <si>
+    <t>The hotel recently underwent a much-needed renovation.  This is a plus, as it was badly needed.  On the other hand, the amenities, especially for Marriott members, have been dramatically reduced.  Very disappointing.
+The renovation is beach-kitsch and I'm not certain it's going to bear up well, either physically, or thematically.  Some of the materials feel cheap and the beach vacation theme seems about three miles out of place.  That being said, it is clean and new.
+The concierge lounge is gone and so there is no evening happy hour.  Nor is there anywhere for Marriott members to drop in to pick up a soda, water, or one of the big, fat cookies that used to be so enjoyable.  The breakfast buffet is much reduced, with a meager offering of thinly-sliced cold cuts, fresh fruit and various breads.  The buffet no longer offers bacon, sausage, eggs, potatoes, oatmeal or other hearty fare.
+There are no longer desks in the rooms.  As a businessman who often works in the evenings, I find this to be very inconvenient. 
+Dining is done out in the open at the back of the lobby.  It feels like being on display and is not very comfortable.  The bar is new with an impressive but strange arrangement of televisions.  These televisions are held by metal frames that are mounted right into the surface of the bar, making for an awkward seating arrangement.  The bottoms of these televisions are...The hotel recently underwent a much-needed renovation.  This is a plus, as it was badly needed.  On the other hand, the amenities, especially for Marriott members, have been dramatically reduced.  Very disappointing.The renovation is beach-kitsch and I'm not certain it's going to bear up well, either physically, or thematically.  Some of the materials feel cheap and the beach vacation theme seems about three miles out of place.  That being said, it is clean and new.The concierge lounge is gone and so there is no evening happy hour.  Nor is there anywhere for Marriott members to drop in to pick up a soda, water, or one of the big, fat cookies that used to be so enjoyable.  The breakfast buffet is much reduced, with a meager offering of thinly-sliced cold cuts, fresh fruit and various breads.  The buffet no longer offers bacon, sausage, eggs, potatoes, oatmeal or other hearty fare.There are no longer desks in the rooms.  As a businessman who often works in the evenings, I find this to be very inconvenient. Dining is done out in the open at the back of the lobby.  It feels like being on display and is not very comfortable.  The bar is new with an impressive but strange arrangement of televisions.  These televisions are held by metal frames that are mounted right into the surface of the bar, making for an awkward seating arrangement.  The bottoms of these televisions are just barely above the heads of the patrons sitting at the bar.A mistake was made on my bill and getting a copy of the corrected statement has proved to be very difficult.  After working with the staff for four consecutive days, I was told that it would take seven-to-ten business days for accounting to generate a new statement.I also believe that $32 to self-park in the garage is a bit pricey.Truly, from a very longtime (several hundred nights) customer's perspective, what has really happened is that Marriott gave the property a much-need facelift, reduced the amenities, and slapped a new name on it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32678-d78136-r574635054-Westdrift_Manhattan_Beach_Autograph_Collection-Manhattan_Beach_California.html</t>
+  </si>
+  <si>
+    <t>574635054</t>
+  </si>
+  <si>
+    <t>04/20/2018</t>
+  </si>
+  <si>
+    <t>Surprisingly Comfortable Stay</t>
+  </si>
+  <si>
+    <t>I am a little behind, I stayed while they were transforming from the Marriot to Westdrift, right before completion.  I did get to experience some of the new amenities and had a newly remodeled room to give a taste of what was to come.  Give the modern vibe of the hotel room, I was at first skeptical, and being I was there for work, and there was no desk in the room, I can't give it a 5.  Otherwise, even with the bar and restaurant being outside, it was a comfortable and quiet stay.  Given all the construction the property was well maintained.  The staff was incredible.  I give kudos to the front desk and valet.  Both were amazing.  I look forward to a revisit now that the construction is completed.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>TeamMarriott, General Manager at westdrift Manhattan Beach, Autograph Collection, responded to this reviewResponded April 30, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 30, 2018</t>
+  </si>
+  <si>
+    <t>I am a little behind, I stayed while they were transforming from the Marriot to Westdrift, right before completion.  I did get to experience some of the new amenities and had a newly remodeled room to give a taste of what was to come.  Give the modern vibe of the hotel room, I was at first skeptical, and being I was there for work, and there was no desk in the room, I can't give it a 5.  Otherwise, even with the bar and restaurant being outside, it was a comfortable and quiet stay.  Given all the construction the property was well maintained.  The staff was incredible.  I give kudos to the front desk and valet.  Both were amazing.  I look forward to a revisit now that the construction is completed.More</t>
   </si>
 </sst>
 </file>
@@ -645,6 +1075,1095 @@
         <v>42</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>9580</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="n">
+        <v>4</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
+        <v>4</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>3</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>9580</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>9580</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O4" t="s">
+        <v>62</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>70</v>
+      </c>
+      <c r="X4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>9580</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>51</v>
+      </c>
+      <c r="O5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>78</v>
+      </c>
+      <c r="X5" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>9580</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" t="s">
+        <v>84</v>
+      </c>
+      <c r="L6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>51</v>
+      </c>
+      <c r="O6" t="s">
+        <v>86</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>87</v>
+      </c>
+      <c r="X6" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>9580</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>91</v>
+      </c>
+      <c r="J7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>51</v>
+      </c>
+      <c r="O7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>94</v>
+      </c>
+      <c r="X7" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>9580</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>97</v>
+      </c>
+      <c r="J8" t="s">
+        <v>98</v>
+      </c>
+      <c r="K8" t="s">
+        <v>99</v>
+      </c>
+      <c r="L8" t="s">
+        <v>100</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>51</v>
+      </c>
+      <c r="O8" t="s">
+        <v>86</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>101</v>
+      </c>
+      <c r="X8" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>9580</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>105</v>
+      </c>
+      <c r="J9" t="s">
+        <v>106</v>
+      </c>
+      <c r="K9" t="s">
+        <v>107</v>
+      </c>
+      <c r="L9" t="s">
+        <v>108</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>61</v>
+      </c>
+      <c r="O9" t="s">
+        <v>52</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>101</v>
+      </c>
+      <c r="X9" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9580</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>110</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>111</v>
+      </c>
+      <c r="J10" t="s">
+        <v>112</v>
+      </c>
+      <c r="K10" t="s">
+        <v>113</v>
+      </c>
+      <c r="L10" t="s">
+        <v>114</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>61</v>
+      </c>
+      <c r="O10" t="s">
+        <v>86</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>101</v>
+      </c>
+      <c r="X10" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9580</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>116</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>117</v>
+      </c>
+      <c r="J11" t="s">
+        <v>118</v>
+      </c>
+      <c r="K11" t="s">
+        <v>119</v>
+      </c>
+      <c r="L11" t="s">
+        <v>120</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>61</v>
+      </c>
+      <c r="O11" t="s">
+        <v>62</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>121</v>
+      </c>
+      <c r="X11" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>9580</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>124</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>125</v>
+      </c>
+      <c r="J12" t="s">
+        <v>126</v>
+      </c>
+      <c r="K12" t="s">
+        <v>127</v>
+      </c>
+      <c r="L12" t="s">
+        <v>128</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>61</v>
+      </c>
+      <c r="O12" t="s">
+        <v>86</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="n">
+        <v>3</v>
+      </c>
+      <c r="S12" t="n">
+        <v>4</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>129</v>
+      </c>
+      <c r="X12" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>9580</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>132</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>133</v>
+      </c>
+      <c r="J13" t="s">
+        <v>134</v>
+      </c>
+      <c r="K13" t="s">
+        <v>135</v>
+      </c>
+      <c r="L13" t="s">
+        <v>136</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>61</v>
+      </c>
+      <c r="O13" t="s">
+        <v>62</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>137</v>
+      </c>
+      <c r="X13" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>9580</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>140</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>141</v>
+      </c>
+      <c r="J14" t="s">
+        <v>142</v>
+      </c>
+      <c r="K14" t="s">
+        <v>143</v>
+      </c>
+      <c r="L14" t="s">
+        <v>144</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>145</v>
+      </c>
+      <c r="O14" t="s">
+        <v>86</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>146</v>
+      </c>
+      <c r="X14" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>9580</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>149</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>150</v>
+      </c>
+      <c r="J15" t="s">
+        <v>151</v>
+      </c>
+      <c r="K15" t="s">
+        <v>152</v>
+      </c>
+      <c r="L15" t="s">
+        <v>153</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>145</v>
+      </c>
+      <c r="O15" t="s">
+        <v>52</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>154</v>
+      </c>
+      <c r="X15" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>9580</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>157</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>158</v>
+      </c>
+      <c r="J16" t="s">
+        <v>151</v>
+      </c>
+      <c r="K16" t="s">
+        <v>159</v>
+      </c>
+      <c r="L16" t="s">
+        <v>160</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>145</v>
+      </c>
+      <c r="O16" t="s">
+        <v>86</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>3</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>161</v>
+      </c>
+      <c r="X16" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>9580</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>164</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>165</v>
+      </c>
+      <c r="J17" t="s">
+        <v>166</v>
+      </c>
+      <c r="K17" t="s">
+        <v>167</v>
+      </c>
+      <c r="L17" t="s">
+        <v>168</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>145</v>
+      </c>
+      <c r="O17" t="s">
+        <v>86</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>169</v>
+      </c>
+      <c r="X17" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>9580</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>172</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>173</v>
+      </c>
+      <c r="J18" t="s">
+        <v>174</v>
+      </c>
+      <c r="K18" t="s">
+        <v>175</v>
+      </c>
+      <c r="L18" t="s">
+        <v>176</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>177</v>
+      </c>
+      <c r="O18" t="s">
+        <v>86</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>178</v>
+      </c>
+      <c r="X18" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>180</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_505.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_505.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="198">
   <si>
     <t>STR#</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>Derek C</t>
   </si>
   <si>
     <t>07/07/2018</t>
@@ -194,6 +197,9 @@
 Breakfast consisted of a continental buffet, which was not bad, but wasn't worth the...We come down to the LA area often and stay all over, from downtown, Beverly Hills, West Hollywood, Santa Monica, LAX, or down in El Segundo. This trip, we decided to stay in Manhattan Beach since this hotel was just reopened as an Autograph Collection hotel, and it was reasonably priced.Upon check in, the front desk was not very friendly, but we got checked in very quickly. For the second time on this trip, I had to inquire if I needed a breakfast cert, and was very coldly told that "our name would be on a list if we got something". Ok. Sure. Had a nice room on the top floor with a view of the city? Not as nice as the golf course views, but I don't spend much time looking out the window anyways.The room was great. It was relatively spacious and appointed with modern furniture and colors. Rather than having a desk, it had a single round table against a sofa-like bench. The bed was comfortable and the bathroom was small, but clean. The property is really nice. Situated next to a golf course, it's pool and convention areas all look out to the course. There is only one restaurant that feels like it's part of the lobby, along with a bar, and seating areas with a foosball and shuffleboard table. Breakfast consisted of a continental buffet, which was not bad, but wasn't worth the price that they were charging for it. The pool is heated and has a good number of chairs and "cabanas" next to it for the size. Overall, I liked this hotel, but there are a few things to note about our stay. The walls are VERY thing. We heard an argument in the connecting room, and people in the hallways talking all night. Speaking of which - most of the people at night in the hallways seemed to be drunk. Going to the lobby at night always had a lot of younger people, and it was always loud and sounded like people were having a good time. Also, there are a lot of dogs. Perhaps it was just this trip we went down, but there dogs of all sizes seen throughout the hotel, and heard barking during the night, morning, and whenever any of the drunk people talking loudly in the hall walked by. On the plus side, I wasn't kept up all night by the vibrations of a service elevator as I had been at the JW Marriott in Santa Monica so I slept better once I fell asleep.All in all, I would stay here again. Perhaps there was just a particularly obnoxious group staying in the hotel when we were there, but I enjoyed the property, my son like the pool and my wife liked the breakfast. Win, win win.More</t>
   </si>
   <si>
+    <t>fourevans</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32678-d78136-r592025757-Westdrift_Manhattan_Beach_Autograph_Collection-Manhattan_Beach_California.html</t>
   </si>
   <si>
@@ -224,6 +230,9 @@
     <t>We like the Marriott Autograph Collection Hotels and this superbly refurbished property did not disappoint. The large Lobby is a feature with a resort-style decor and is a lovely space to relax and have coffee or drinks.   We upgraded our room to include a view over the golf course but on the level we were on (3) the view was somewhat obscured by the roof of the floor below. As we spent little time in the room that was not really an issue and we really enjoyed our stay. The hotel is close to good shopping centres like Manhattan Beach Mall (currently also being refurbished, but it remains open) and stylish The Point. The staff were accommodating and friendly and service was good.More</t>
   </si>
   <si>
+    <t>Jason P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32678-d78136-r591928989-Westdrift_Manhattan_Beach_Autograph_Collection-Manhattan_Beach_California.html</t>
   </si>
   <si>
@@ -245,6 +254,9 @@
     <t>My wife and I are road warriors, and with almost 900 nights with Marriott we have seen our share of rooms and hotels. While we don’t leave reviews often, this stay definitely earned one. What stood out about our experience here?Honestly it was the service. The morning of our stay I called the property to let them know it was our anniversary, and Michelle treated me like royalty. She and her team even went so far as to do a walk through of the room, and texted me the video, just to be sure I would be happy with the room we selected. When we arrived in our beautiful suite, we were greeted with a thoughtful hand written note from her along with a plate of chocolate strawberries. I’ve stayed at a lot of hotels over the years, and while yes this is a great property, what I found to be invaluable was the service. Thanks for a great stay!More</t>
   </si>
   <si>
+    <t>Melinda Bell B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32678-d78136-r590551203-Westdrift_Manhattan_Beach_Autograph_Collection-Manhattan_Beach_California.html</t>
   </si>
   <si>
@@ -269,6 +281,9 @@
     <t>We have stayed here twice. Great hotel, just missing hot tub and sauna :-(Good location. 5 minutes Uber ride to beach. Great renovation, clean and quiet.   Pool was freezing and not enough pool towels. Gym was nice. More</t>
   </si>
   <si>
+    <t>Durry-357</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32678-d78136-r589827412-Westdrift_Manhattan_Beach_Autograph_Collection-Manhattan_Beach_California.html</t>
   </si>
   <si>
@@ -296,6 +311,9 @@
     <t>Stayed one night on a business trip. The Westdrift is well located, close to the beach, but backs onto a golf course so you don’t feel like you are in central LA. The old Marriott has been renovated beautifully and totally modernized. The reception area is a great example of this with a very open feel that incorporates meeting spaces and the bar. The rooms are very business like, clean, new and with modern facilities. The pool area needs some work but feel I’ve found my new go to hotel for business in LA. More</t>
   </si>
   <si>
+    <t>Tootalledh</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32678-d78136-r589827250-Westdrift_Manhattan_Beach_Autograph_Collection-Manhattan_Beach_California.html</t>
   </si>
   <si>
@@ -314,6 +332,9 @@
     <t>I have stayed at the Marriott a few times in the past and thought this would be a great place with the updates but its gone from catering to business traveler to something else.  The updates are nice but you can still see the old big Marriott.  Don't pass it up but don't expect to be catered to if you are a business traveler, no desk really??More</t>
   </si>
   <si>
+    <t>IU_JQ</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32678-d78136-r585729882-Westdrift_Manhattan_Beach_Autograph_Collection-Manhattan_Beach_California.html</t>
   </si>
   <si>
@@ -338,6 +359,9 @@
     <t>I found the first floor open space with bar, breakfast, and a mix of comfortable seating as well as working spaces just beautiful.  Room and amenities were great.  In particular, the staff was great when I realized i left an item behind.  I emailed the problem to staff early that morning, and before 8am there was a plan to have my item shipped to me immediately.  I had a minor facility issue in my room, and they were also quick to assess and fix the issue. I was to work in the room while the maintenance staff quickly and quietly got things right.\Very happy with my stay, and look forward to returning soon.More</t>
   </si>
   <si>
+    <t>traveller_9876543211</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32678-d78136-r585598767-Westdrift_Manhattan_Beach_Autograph_Collection-Manhattan_Beach_California.html</t>
   </si>
   <si>
@@ -356,6 +380,9 @@
     <t>Very nice rooms, modern hotel, close to the beach (10 min drive) and highway. Hotel views to a golf course. Parking is an attached structured, 32 usd a day, seems to be a little pricy. One drawback, rooms were not cleaned, you had to request it, this should not happen.More</t>
   </si>
   <si>
+    <t>Vipul_Rawal</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32678-d78136-r585363767-Westdrift_Manhattan_Beach_Autograph_Collection-Manhattan_Beach_California.html</t>
   </si>
   <si>
@@ -374,6 +401,9 @@
     <t>I had great stay at the hotel which is recently remodeled with beautiful interiors, which looks good. One side of the hotel has city view &amp; the other side has Golf course view. One should take rooms on top floors to get good views around the hotel. The best part is that it is walkable to a lot of places to eat &amp; for shopping in Macys. Also, it’s not very far from the Manhattan beach which again turns to be advantageous for the hotel. Rooms were comfortable and clean, great amenities, loved staying here. Would definitely like to visit again. More</t>
   </si>
   <si>
+    <t>Jeff W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32678-d78136-r583764518-Westdrift_Manhattan_Beach_Autograph_Collection-Manhattan_Beach_California.html</t>
   </si>
   <si>
@@ -398,6 +428,9 @@
     <t>We were looking for a getaway spot for Memorial Day weekend and found it!  They had finished a remodel 2 months before and it was outstanding.  The lobby was very nicely down with a complete bar, plenty of seating including a patio area looking over the golf course.  The room was terrific, great king-sized platform bed, a refrigerator and a Keurig coffee maker.  The bathroom was very nice with glassed in shower.  Had a nice bench couch with a small table.  I cannot say enough about the staff, from the valet, bellman, front desk and restaurant were just fabulous!  We played a round of golf and the course was in very good shape.  Linda at the course pro shop was very nice, getting us set up and off the tee quickly. I recommend booking a tee time. The hotel was minutes from the beach, we went down Sunday evening to catch a beautiful sunset.  It was an awesome weekend for us, staying at the Westdrift Manhattan Beach made it great!More</t>
   </si>
   <si>
+    <t>dysphorichousewife</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32678-d78136-r581131676-Westdrift_Manhattan_Beach_Autograph_Collection-Manhattan_Beach_California.html</t>
   </si>
   <si>
@@ -422,6 +455,9 @@
     <t>The building doesn't look like a hotel from the exterior - it looks like a generic office building.  Inside the lobby and rooms are quite nice.  No desk in the room.  Valet parking is just a few $ more than self-park.  Good service.More</t>
   </si>
   <si>
+    <t>Kakarsaab</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32678-d78136-r580293504-Westdrift_Manhattan_Beach_Autograph_Collection-Manhattan_Beach_California.html</t>
   </si>
   <si>
@@ -446,6 +482,9 @@
     <t>We stayed at Westdrift Manhattan Beach last weekend and absolutely loved it. The property is beautiful and we loved the way they payed attention to every detail. We loved our room with balcony, it was nice and clean. The brunch on Sunday morning was to die for :-)More</t>
   </si>
   <si>
+    <t>PilotMichael</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32678-d78136-r576829207-Westdrift_Manhattan_Beach_Autograph_Collection-Manhattan_Beach_California.html</t>
   </si>
   <si>
@@ -473,6 +512,9 @@
     <t>This is an unexpecting beautiful property. Located aside of a golf course, above overlooking the greens, it’s a very modern hotel with beautiful furniture and wonderful landscaping. I was there for a business conference and I want to point out that the food served to a large number of people in the conference room was excellent. I think it’s very difficult to serve excellent food to a mass number of people. And they did it well. Very well. Extremely well. I will be back to this hotel for more.More</t>
   </si>
   <si>
+    <t>Crislaguera</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32678-d78136-r576622307-Westdrift_Manhattan_Beach_Autograph_Collection-Manhattan_Beach_California.html</t>
   </si>
   <si>
@@ -497,6 +539,9 @@
     <t>Se reserved online for 5 people (2 adults, 1 teenager, 2 kids). Our option was a king bed or 2 queens and a rollaway bed, we asked for 2 queens and The rollaway bed. But, once we got there they said that a rollaway bed was not an option so we crammed up in the two beds, that is why I gave it 4 stars. We were not able to rest well, but the bed is really nice. View of the golf course is nice. The decoration is fresh, clean and peaceful. We had room service and it was really good. Especially the Thai chicken and the grilled avocado/tomato burrata salad.More</t>
   </si>
   <si>
+    <t>Donyaann</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32678-d78136-r576604219-Westdrift_Manhattan_Beach_Autograph_Collection-Manhattan_Beach_California.html</t>
   </si>
   <si>
@@ -516,6 +561,9 @@
   </si>
   <si>
     <t>I have stayed frequently at this hotel, through all the construction and renovation.  So this time, it was pleasant not to have a tent in the parking lot and workers banging hammers.  The location is marvelous and beautiful and the hotel is roomy.  Everything is clean and new and boring.  Sand color only goes so far without some splashes of color.  I missed the concierge lounge and the breakfast buffet was just not up to par (the word stingy comes to mind).  Housekeeping forgot to clean my room one day but I would put that down to getting everything organized.  The ball room was very nice for our big meeting and the catered meal was excellent.More</t>
+  </si>
+  <si>
+    <t>Jay S</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32678-d78136-r576134918-Westdrift_Manhattan_Beach_Autograph_Collection-Manhattan_Beach_California.html</t>
@@ -548,6 +596,9 @@
 The concierge lounge is gone and so there is no evening happy hour.  Nor is there anywhere for Marriott members to drop in to pick up a soda, water, or one of the big, fat cookies that used to be so enjoyable.  The breakfast buffet is much reduced, with a meager offering of thinly-sliced cold cuts, fresh fruit and various breads.  The buffet no longer offers bacon, sausage, eggs, potatoes, oatmeal or other hearty fare.
 There are no longer desks in the rooms.  As a businessman who often works in the evenings, I find this to be very inconvenient. 
 Dining is done out in the open at the back of the lobby.  It feels like being on display and is not very comfortable.  The bar is new with an impressive but strange arrangement of televisions.  These televisions are held by metal frames that are mounted right into the surface of the bar, making for an awkward seating arrangement.  The bottoms of these televisions are...The hotel recently underwent a much-needed renovation.  This is a plus, as it was badly needed.  On the other hand, the amenities, especially for Marriott members, have been dramatically reduced.  Very disappointing.The renovation is beach-kitsch and I'm not certain it's going to bear up well, either physically, or thematically.  Some of the materials feel cheap and the beach vacation theme seems about three miles out of place.  That being said, it is clean and new.The concierge lounge is gone and so there is no evening happy hour.  Nor is there anywhere for Marriott members to drop in to pick up a soda, water, or one of the big, fat cookies that used to be so enjoyable.  The breakfast buffet is much reduced, with a meager offering of thinly-sliced cold cuts, fresh fruit and various breads.  The buffet no longer offers bacon, sausage, eggs, potatoes, oatmeal or other hearty fare.There are no longer desks in the rooms.  As a businessman who often works in the evenings, I find this to be very inconvenient. Dining is done out in the open at the back of the lobby.  It feels like being on display and is not very comfortable.  The bar is new with an impressive but strange arrangement of televisions.  These televisions are held by metal frames that are mounted right into the surface of the bar, making for an awkward seating arrangement.  The bottoms of these televisions are just barely above the heads of the patrons sitting at the bar.A mistake was made on my bill and getting a copy of the corrected statement has proved to be very difficult.  After working with the staff for four consecutive days, I was told that it would take seven-to-ten business days for accounting to generate a new statement.I also believe that $32 to self-park in the garage is a bit pricey.Truly, from a very longtime (several hundred nights) customer's perspective, what has really happened is that Marriott gave the property a much-need facelift, reduced the amenities, and slapped a new name on it.More</t>
+  </si>
+  <si>
+    <t>Kevin W</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32678-d78136-r574635054-Westdrift_Manhattan_Beach_Autograph_Collection-Manhattan_Beach_California.html</t>
@@ -1079,43 +1130,47 @@
       <c r="A2" t="n">
         <v>9580</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="n">
@@ -1133,56 +1188,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>9580</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P3" t="n">
         <v>4</v>
@@ -1198,56 +1257,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="X3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>9580</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1259,56 +1322,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="X4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Y4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>9580</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>76</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1320,56 +1387,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="X5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="Y5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>9580</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>85</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="J6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="L6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1381,56 +1452,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="X6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="Y6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>9580</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>95</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="J7" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="L7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="M7" t="n">
         <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O7" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="n">
@@ -1448,56 +1523,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="X7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="Y7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>9580</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>102</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="J8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="K8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="L8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O8" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P8" t="n">
         <v>4</v>
@@ -1515,56 +1594,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="X8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="Y8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>9580</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>111</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="J9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="K9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="L9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1576,56 +1659,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="X9" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="Y9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>9580</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>118</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="J10" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="K10" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="L10" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O10" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -1637,56 +1724,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="X10" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="Y10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>9580</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>125</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="J11" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="K11" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="L11" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="n">
@@ -1704,56 +1795,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="X11" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="Y11" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>9580</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>134</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="J12" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="K12" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="L12" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O12" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -1771,56 +1866,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="X12" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="Y12" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>9580</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>143</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="J13" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="K13" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="L13" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P13" t="n">
         <v>5</v>
@@ -1838,56 +1937,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="X13" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="Y13" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>9580</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>152</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="J14" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="K14" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="L14" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="O14" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -1899,56 +2002,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="X14" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="Y14" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>9580</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>162</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="J15" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="K15" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="L15" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="O15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -1960,56 +2067,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="X15" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="Y15" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>9580</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>171</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="J16" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="K16" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="L16" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="O16" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P16" t="n">
         <v>3</v>
@@ -2027,56 +2138,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="X16" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="Y16" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>9580</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>179</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="J17" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="K17" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="L17" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="M17" t="n">
         <v>2</v>
       </c>
       <c r="N17" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="O17" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2088,56 +2203,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="X17" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="Y17" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>9580</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>188</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="J18" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="K18" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="L18" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="O18" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P18" t="n">
         <v>3</v>
@@ -2155,13 +2274,13 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="X18" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="Y18" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
